--- a/Analisis/Interfaces/interfaces.xlsx
+++ b/Analisis/Interfaces/interfaces.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Interfaces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="318" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04D9DF90-A5A9-492A-B071-249E29E94D4F}"/>
+  <xr:revisionPtr revIDLastSave="442" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFED54A1-64AB-4546-91FD-77EB8CDD5840}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen" sheetId="2" r:id="rId1"/>
     <sheet name="cartera_operaciones" sheetId="1" r:id="rId2"/>
     <sheet name="cuadro_operaciones" sheetId="5" r:id="rId3"/>
     <sheet name="tipo_cambio" sheetId="4" r:id="rId4"/>
+    <sheet name="cuadro_rectificaciones" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="114">
   <si>
     <t>Campo</t>
   </si>
@@ -487,6 +488,215 @@
       <t>1: Si
 2: NO</t>
     </r>
+  </si>
+  <si>
+    <t>Esta fecha de proceso corresponde a la fecha en que sera rectificado el archivo</t>
+  </si>
+  <si>
+    <t>fecha_a_rectificar</t>
+  </si>
+  <si>
+    <t>Corresponde a la fecha de proceso que se requiere rectificar</t>
+  </si>
+  <si>
+    <t>REDEC02</t>
+  </si>
+  <si>
+    <t>operación_desfasada</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reportar 1 o 2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1: Si es una operación desfasada
+2: NO es una operación desfasada</t>
+    </r>
+  </si>
+  <si>
+    <t>RDC01</t>
+  </si>
+  <si>
+    <t>RDC02</t>
+  </si>
+  <si>
+    <t>fecha_rectificacion</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Este campo tiene propositos de rectificacion, es decir, en el caso que la entidad no reporto una operación en una fecha particular.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Solo para causal 2 en campo 30 RDC02 "Agregacion desfasada de la operación al registro"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corresponde a la fecha de proceso donde se debio enviar esta informacion
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Solo para causal 2 en campo 30 RDC02 "Agregacion desfasada de la operación al registro"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corresponde a la fecha (AAAAMMDD) en que fue rectificada la operación en los sistemas internos del reportante.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Solo para causal 2 en campo 30 RDC02 "Agregacion desfasada de la operación al registro"</t>
+    </r>
+  </si>
+  <si>
+    <t>causal_rectificacion</t>
+  </si>
+  <si>
+    <t>Default enviar vacío o 19000101
+Este campo solo se tomara en cuenta si en campo operación_desfasada se informa 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Si aplica enviar 1,2,3,4,o 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">
+Si no aplica enviar vacío
+Este campo solo se tomara en cuenta si en campo operación_desfasada se informa 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se deberá completar el código considerando la causal de la rectificación de la siguiente tabla:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>1: Por errores u omisiones identificados internamente, sin previa solicitud del deudor.
+2: Por acoger totalmente una solicitud del deudor distinta a la del código 5.
+3: Por acoger parcialmente una solicitud del deudor.
+4: Por instrucción de la Comisión, tras rechazo de la solicitud por parte del reportante.
+5: Por acoger una solicitud del deudor relacionada a prescripción o liquidación concursal de la operación resuelta por un Tribunal.</t>
+    </r>
+  </si>
+  <si>
+    <t>numero_solicitud</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En este campo se debe informar el código remitido en el campo NÚMERO DE LA SOLICITUD del archivo RDC40, cuando corresponda a causales por solicitud realizada por el deudor. Para ello se debe indicar el código remitido en el campo NÚMERO DE LA SOLICITUD del archivo RDC40. En dicho caso, el valor informado en el campo EVENTO de esta solicitud debe corresponder a cerrado (código 3) y el valor informado en el campo RESPUESTA DE LA SOLICITUD debe corresponder a acoge parcialmente (código 2) o acoge totalmente (código 1) la solicitud en el archivo RDC40.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>En los casos en que el campo 32 CAUSAL DE RECTIFICACIÓN se informe con códigos 1 o 4, se debe completar con blancos (espacios).</t>
+    </r>
+  </si>
+  <si>
+    <t>Solo se debe enviar si en el campo causal_rectificacion se informa 2,3 o 5
+Default vacío</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Causal de eliminacion, para esta interfaz solo se aceptan para los casos:
+1: Eliminacion de la operación
+0: Otro tipo de modificacion
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Nota: Para agregacion se informa en la interfaz cartera_operaciones</t>
+    </r>
+  </si>
+  <si>
+    <t>Informar 1 o 0</t>
+  </si>
+  <si>
+    <t>campo_rdc01</t>
+  </si>
+  <si>
+    <t>Reportar el numero de campo a rectificar, si se requieren modificar mas campos, solo se deben enviar tantos registros en esta interface como campos se requieran modificar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Informar el numero del campo del RDC01 que se requiere rectificar
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Numeros del 1 al 28</t>
+    </r>
+  </si>
+  <si>
+    <t>En este campo se informara el valor a modificar.
+Si se requiere informar montos, se debera informar convertidos a pesos.</t>
+  </si>
+  <si>
+    <t>Informar con el formato que se requiere para el archivo, es decir, si el campo a modificar es fecha, reportar YYYYMMDD, si es un monto, informar en pesos</t>
+  </si>
+  <si>
+    <t>causal_eliminacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde a la fecha (AAAAMMDD) en que fue rectificada la operación en los sistemas internos del reportante.
+</t>
   </si>
 </sst>
 </file>
@@ -533,7 +743,7 @@
       <name val="SimSun"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,6 +753,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -610,6 +826,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,10 +875,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -912,24 +1157,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F22" sqref="A22:F22"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62" style="6" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="74.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="25.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="7"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="7" width="9.140625" style="7"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -946,10 +1191,13 @@
         <v>10</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>56</v>
       </c>
@@ -959,8 +1207,14 @@
       <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -976,8 +1230,11 @@
       <c r="F3" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="168" x14ac:dyDescent="0.15">
+      <c r="G3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="144" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
@@ -996,8 +1253,11 @@
       <c r="F4" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="G4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
@@ -1010,8 +1270,11 @@
       <c r="F5" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="156" x14ac:dyDescent="0.15">
+      <c r="G5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="144" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
@@ -1030,8 +1293,11 @@
       <c r="F6" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="132" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
         <v>17</v>
       </c>
@@ -1050,8 +1316,11 @@
       <c r="F7" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="72" x14ac:dyDescent="0.15">
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
         <v>23</v>
       </c>
@@ -1070,8 +1339,11 @@
       <c r="F8" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
         <v>27</v>
       </c>
@@ -1084,8 +1356,11 @@
       <c r="F9" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="276" x14ac:dyDescent="0.15">
+      <c r="G9" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="228" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
@@ -1102,8 +1377,11 @@
       <c r="F10" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+      <c r="G10" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
         <v>34</v>
       </c>
@@ -1116,8 +1394,11 @@
       <c r="F11" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="252" x14ac:dyDescent="0.15">
+      <c r="G11" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="216" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
         <v>38</v>
       </c>
@@ -1130,8 +1411,11 @@
       <c r="F12" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="324" x14ac:dyDescent="0.15">
+      <c r="G12" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="276" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
         <v>40</v>
       </c>
@@ -1144,8 +1428,11 @@
       <c r="F13" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="72" x14ac:dyDescent="0.15">
+      <c r="G13" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
         <v>42</v>
       </c>
@@ -1158,8 +1445,11 @@
       <c r="F14" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="96" x14ac:dyDescent="0.15">
+      <c r="G14" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
         <v>44</v>
       </c>
@@ -1172,8 +1462,11 @@
       <c r="F15" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="120" x14ac:dyDescent="0.15">
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
         <v>46</v>
       </c>
@@ -1189,8 +1482,11 @@
       <c r="F16" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="G16" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="36" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
         <v>49</v>
       </c>
@@ -1206,8 +1502,11 @@
       <c r="F17" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="G17" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
         <v>50</v>
       </c>
@@ -1223,8 +1522,11 @@
       <c r="F18" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
         <v>52</v>
       </c>
@@ -1240,8 +1542,11 @@
       <c r="F19" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="G19" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A20" s="17" t="s">
         <v>57</v>
       </c>
@@ -1254,8 +1559,11 @@
       <c r="F20" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="G20" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A21" s="17" t="s">
         <v>80</v>
       </c>
@@ -1271,8 +1579,11 @@
       <c r="F21" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="G21" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="36" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
         <v>83</v>
       </c>
@@ -1286,6 +1597,104 @@
         <v>6</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="A23" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="A24" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="A25" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="144" x14ac:dyDescent="0.15">
+      <c r="A26" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="144" x14ac:dyDescent="0.15">
+      <c r="A27" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1299,7 +1708,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="A4:F4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1347,7 +1756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
@@ -1557,4 +1966,197 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30384B7-8E23-4C8B-825F-E2F77541013E}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="7"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="84" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="A8" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.15">
+      <c r="A9" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="144" x14ac:dyDescent="0.15">
+      <c r="A10" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analisis/Interfaces/interfaces.xlsx
+++ b/Analisis/Interfaces/interfaces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Interfaces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="442" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFED54A1-64AB-4546-91FD-77EB8CDD5840}"/>
+  <xr:revisionPtr revIDLastSave="453" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30857D36-F44A-4CB9-BA74-960D0B4FB221}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="118">
   <si>
     <t>Campo</t>
   </si>
@@ -697,6 +697,18 @@
   <si>
     <t xml:space="preserve">Corresponde a la fecha (AAAAMMDD) en que fue rectificada la operación en los sistemas internos del reportante.
 </t>
+  </si>
+  <si>
+    <t>valor_contable</t>
+  </si>
+  <si>
+    <t>RDC22</t>
+  </si>
+  <si>
+    <t>Informar en moneda en pesos chilenos</t>
+  </si>
+  <si>
+    <t>Corresponde al valor de la cuenta contable reportada expresado por su equivalente en pesos a la fecha de referencia del archivo, cuando se trate de operaciones reajustables o en moneda extranjera.</t>
   </si>
 </sst>
 </file>
@@ -775,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -845,21 +857,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,6 +872,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1146,9 +1147,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1157,24 +1158,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="7"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.109375" style="7"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1196,8 +1197,11 @@
       <c r="G1" s="12" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="H1" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>56</v>
       </c>
@@ -1213,8 +1217,11 @@
       <c r="G2" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="H2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1234,7 +1241,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="144" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="144" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
@@ -1257,7 +1264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
@@ -1274,7 +1281,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="144" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="144" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
@@ -1297,7 +1304,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="132" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="132" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
         <v>17</v>
       </c>
@@ -1320,7 +1327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
         <v>23</v>
       </c>
@@ -1342,8 +1349,11 @@
       <c r="G8" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="H8" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
         <v>27</v>
       </c>
@@ -1360,7 +1370,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="228" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="228" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
@@ -1380,8 +1390,9 @@
       <c r="G10" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="96" x14ac:dyDescent="0.15">
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" ht="96" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
         <v>34</v>
       </c>
@@ -1398,7 +1409,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="216" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="216" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
         <v>38</v>
       </c>
@@ -1415,7 +1426,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="276" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="276" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
         <v>40</v>
       </c>
@@ -1432,7 +1443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
         <v>42</v>
       </c>
@@ -1449,7 +1460,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="84" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="84" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
         <v>44</v>
       </c>
@@ -1466,7 +1477,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="96" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="96" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
         <v>46</v>
       </c>
@@ -1486,7 +1497,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
         <v>49</v>
       </c>
@@ -1506,7 +1517,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
         <v>50</v>
       </c>
@@ -1526,7 +1537,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
         <v>52</v>
       </c>
@@ -1546,7 +1557,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A20" s="17" t="s">
         <v>57</v>
       </c>
@@ -1563,7 +1574,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A21" s="17" t="s">
         <v>80</v>
       </c>
@@ -1583,7 +1594,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="36" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
         <v>83</v>
       </c>
@@ -1603,7 +1614,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A23" s="19" t="s">
         <v>90</v>
       </c>
@@ -1621,8 +1632,9 @@
       <c r="G23" s="23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A24" s="19" t="s">
         <v>87</v>
       </c>
@@ -1640,8 +1652,9 @@
       <c r="G24" s="23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="48" x14ac:dyDescent="0.15">
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" s="19" t="s">
         <v>94</v>
       </c>
@@ -1659,8 +1672,9 @@
       <c r="G25" s="23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="144" x14ac:dyDescent="0.15">
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:8" ht="144" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
         <v>98</v>
       </c>
@@ -1671,15 +1685,16 @@
         <v>100</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="23"/>
       <c r="G26" s="23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="144" x14ac:dyDescent="0.15">
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="1:8" ht="144" x14ac:dyDescent="0.15">
       <c r="A27" s="19" t="s">
         <v>102</v>
       </c>
@@ -1695,6 +1710,24 @@
       <c r="E27" s="22"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1711,15 +1744,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="7"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.5546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="7"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -1901,14 +1934,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
@@ -1972,19 +2005,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30384B7-8E23-4C8B-825F-E2F77541013E}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="7"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.5546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="7"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
@@ -2024,7 +2057,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>87</v>
       </c>
@@ -2104,55 +2137,47 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.15">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="144" x14ac:dyDescent="0.15">
-      <c r="A10" s="25" t="s">
+      <c r="G9" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="156" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="7" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Analisis/Interfaces/interfaces.xlsx
+++ b/Analisis/Interfaces/interfaces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Interfaces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="453" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30857D36-F44A-4CB9-BA74-960D0B4FB221}"/>
+  <xr:revisionPtr revIDLastSave="458" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{156F7DF3-3444-4C7B-9FF0-14A831F1AF20}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen" sheetId="2" r:id="rId1"/>
@@ -89,51 +89,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Las entidades podran enviar la codificacion oficial, es decir:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t xml:space="preserve">1: Si, deuda positiva
-2: Si, dedau negativa
-3: Si, deuda positiva y negativa
-4: No
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t xml:space="preserve">
-En caso que no, deberan relacionar el codigo de la entidad para determinar este concepto en la tabla "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>operacion_titulo_rel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t xml:space="preserve">" </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Se debe relacionar este codigo con la tabla interna "</t>
     </r>
     <r>
@@ -241,9 +196,6 @@
   </si>
   <si>
     <t>cod_tipo_obligacion</t>
-  </si>
-  <si>
-    <t>codigo de la entidad para determinar el concepto de la TABLA 126 del MSI de bancos que requiere REDEC</t>
   </si>
   <si>
     <t>tabla_banco_126_rel</t>
@@ -709,6 +661,55 @@
   </si>
   <si>
     <t>Corresponde al valor de la cuenta contable reportada expresado por su equivalente en pesos a la fecha de referencia del archivo, cuando se trate de operaciones reajustables o en moneda extranjera.</t>
+  </si>
+  <si>
+    <t>codigo de la entidad para determinar el concepto de la TABLA 126 del MSI de bancos que requiere REDEC.
+Aqui las entidades pueden enviar un codigo de producto o el mismo codigo de la tabla 126.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Las entidades podran enviar la codificacion oficial, es decir:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">1: Si, deuda positiva
+2: Si, deuda negativa
+3: Si, deuda positiva y negativa
+4: No
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">
+En caso que no, deberan relacionar el codigo de la entidad para determinar este concepto en la tabla "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>operacion_titulo_rel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1160,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1192,33 +1193,33 @@
         <v>10</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -1235,10 +1236,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="144" x14ac:dyDescent="0.15">
@@ -1249,7 +1250,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
@@ -1258,10 +1259,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -1275,10 +1276,10 @@
         <v>6</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="144" x14ac:dyDescent="0.15">
@@ -1289,7 +1290,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
@@ -1298,10 +1299,10 @@
         <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="132" x14ac:dyDescent="0.15">
@@ -1312,317 +1313,317 @@
         <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="228" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="96" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="216" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="276" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="84" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="96" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A20" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A21" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A23" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>6</v>
@@ -1630,59 +1631,59 @@
       <c r="E23" s="22"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A24" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="23"/>
       <c r="G24" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H24" s="23"/>
     </row>
     <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>99</v>
-      </c>
       <c r="D25" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="23"/>
       <c r="G25" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" ht="144" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>100</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>6</v>
@@ -1690,19 +1691,19 @@
       <c r="E26" s="22"/>
       <c r="F26" s="23"/>
       <c r="G26" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26" s="23"/>
     </row>
     <row r="27" spans="1:8" ht="144" x14ac:dyDescent="0.15">
       <c r="A27" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>102</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>104</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>6</v>
@@ -1710,25 +1711,25 @@
       <c r="E27" s="22"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1741,7 +1742,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1772,21 +1773,21 @@
         <v>10</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.15">
@@ -1800,125 +1801,125 @@
         <v>6</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1931,7 +1932,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1963,23 +1964,23 @@
     </row>
     <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -1987,13 +1988,13 @@
     </row>
     <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2005,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30384B7-8E23-4C8B-825F-E2F77541013E}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2037,38 +2038,38 @@
         <v>10</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -2082,103 +2083,103 @@
         <v>6</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="156" x14ac:dyDescent="0.15">
       <c r="A10" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/Interfaces/interfaces.xlsx
+++ b/Analisis/Interfaces/interfaces.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="458" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{156F7DF3-3444-4C7B-9FF0-14A831F1AF20}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13590" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen" sheetId="2" r:id="rId1"/>
@@ -19,10 +19,21 @@
     <sheet name="tipo_cambio" sheetId="4" r:id="rId4"/>
     <sheet name="cuadro_rectificaciones" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2006,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30384B7-8E23-4C8B-825F-E2F77541013E}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2058,7 +2069,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>85</v>
       </c>

--- a/Analisis/Interfaces/interfaces.xlsx
+++ b/Analisis/Interfaces/interfaces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Interfaces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="458" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{156F7DF3-3444-4C7B-9FF0-14A831F1AF20}"/>
+  <xr:revisionPtr revIDLastSave="459" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E02041F8-04D6-45A7-9C4A-087FA461B2A3}"/>
   <bookViews>
-    <workbookView xWindow="13590" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen" sheetId="2" r:id="rId1"/>
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1597,7 +1597,7 @@
         <v>80</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>31</v>
@@ -2017,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30384B7-8E23-4C8B-825F-E2F77541013E}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2069,7 +2069,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>85</v>
       </c>

--- a/Analisis/Interfaces/interfaces.xlsx
+++ b/Analisis/Interfaces/interfaces.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="459" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E02041F8-04D6-45A7-9C4A-087FA461B2A3}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen" sheetId="2" r:id="rId1"/>
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1753,7 +1753,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2017,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30384B7-8E23-4C8B-825F-E2F77541013E}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2069,7 +2069,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>85</v>
       </c>

--- a/Analisis/Interfaces/interfaces.xlsx
+++ b/Analisis/Interfaces/interfaces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Interfaces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="459" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E02041F8-04D6-45A7-9C4A-087FA461B2A3}"/>
+  <xr:revisionPtr revIDLastSave="462" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA64D172-F508-41C9-B856-96CB812AFD4E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen" sheetId="2" r:id="rId1"/>
@@ -1156,7 +1156,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1753,7 +1753,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2017,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30384B7-8E23-4C8B-825F-E2F77541013E}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>

--- a/Analisis/Interfaces/interfaces.xlsx
+++ b/Analisis/Interfaces/interfaces.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="462" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA64D172-F508-41C9-B856-96CB812AFD4E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen" sheetId="2" r:id="rId1"/>
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2069,7 +2069,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>85</v>
       </c>

--- a/Analisis/Interfaces/interfaces.xlsx
+++ b/Analisis/Interfaces/interfaces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Interfaces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="462" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA64D172-F508-41C9-B856-96CB812AFD4E}"/>
+  <xr:revisionPtr revIDLastSave="472" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AD35F06-639F-439B-ABDB-D7949E1C254E}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="121">
   <si>
     <t>Campo</t>
   </si>
@@ -267,9 +267,6 @@
   </si>
   <si>
     <t>numeric</t>
-  </si>
-  <si>
-    <t>Por analizar en mas detalle, se podria sacar desde el cuadro de pago.</t>
   </si>
   <si>
     <t>gar_real_inmobiliaria</t>
@@ -314,9 +311,6 @@
 Para operaciones del TIPO DE OBLIGACIÓN REPORTABLE de leasing con código 31, 32 o 33 del campo 6, este monto será completado con el monto remanente de la duración del contrato.</t>
   </si>
   <si>
-    <t>Informar en moneda de origen</t>
-  </si>
-  <si>
     <t>capital</t>
   </si>
   <si>
@@ -721,6 +715,23 @@
       </rPr>
       <t xml:space="preserve">" </t>
     </r>
+  </si>
+  <si>
+    <t>Informar el valor en pesos</t>
+  </si>
+  <si>
+    <t>Informar en moneda de origen
+Para el leasing tambien informar el monto original no el remanente, ya que el remanente se sacara desde el cuadro de pago.</t>
+  </si>
+  <si>
+    <t>Si existe la categoria otros y que este pagado, debe ir aca.</t>
+  </si>
+  <si>
+    <t>otros_pagado</t>
+  </si>
+  <si>
+    <t>Tiene sentido para tipos de obligaciones 07 y 08, usos de tarjetas de credito y uso de lineas de creditos.
+Para los otros tipos de obligacion no contingente, el valor a reportar en el RDC01 se sacara desde el cuadro de pago.</t>
   </si>
 </sst>
 </file>
@@ -1172,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1204,21 +1215,21 @@
         <v>10</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>26</v>
@@ -1301,7 +1312,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
@@ -1344,7 +1355,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>24</v>
@@ -1390,7 +1401,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>34</v>
@@ -1423,10 +1434,13 @@
     </row>
     <row r="12" spans="1:8" ht="216" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>37</v>
+      <c r="C12" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>34</v>
@@ -1440,10 +1454,13 @@
     </row>
     <row r="13" spans="1:8" ht="276" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>39</v>
+      <c r="C13" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>34</v>
@@ -1457,10 +1474,13 @@
     </row>
     <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>41</v>
+      <c r="C14" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>34</v>
@@ -1474,10 +1494,13 @@
     </row>
     <row r="15" spans="1:8" ht="84" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>43</v>
+      <c r="C15" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>34</v>
@@ -1491,13 +1514,13 @@
     </row>
     <row r="16" spans="1:8" ht="96" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>34</v>
@@ -1511,13 +1534,13 @@
     </row>
     <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>34</v>
@@ -1531,13 +1554,13 @@
     </row>
     <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>34</v>
@@ -1551,13 +1574,13 @@
     </row>
     <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>34</v>
@@ -1571,10 +1594,10 @@
     </row>
     <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A20" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>6</v>
@@ -1588,13 +1611,13 @@
     </row>
     <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A21" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>26</v>
@@ -1608,13 +1631,13 @@
     </row>
     <row r="22" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>6</v>
@@ -1628,13 +1651,13 @@
     </row>
     <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A23" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>6</v>
@@ -1648,13 +1671,13 @@
     </row>
     <row r="24" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A24" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>26</v>
@@ -1668,13 +1691,13 @@
     </row>
     <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>95</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>97</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>26</v>
@@ -1688,13 +1711,13 @@
     </row>
     <row r="26" spans="1:8" ht="144" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>96</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>98</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>6</v>
@@ -1708,13 +1731,13 @@
     </row>
     <row r="27" spans="1:8" ht="144" x14ac:dyDescent="0.15">
       <c r="A27" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>102</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>6</v>
@@ -1728,13 +1751,13 @@
     </row>
     <row r="28" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>34</v>
@@ -1750,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCEABFF-C145-4CD4-8906-0ADE13F77864}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1789,10 +1812,10 @@
     </row>
     <row r="2" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>26</v>
@@ -1817,13 +1840,13 @@
     </row>
     <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>26</v>
@@ -1834,10 +1857,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>34</v>
@@ -1848,10 +1871,10 @@
     </row>
     <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>34</v>
@@ -1862,10 +1885,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>34</v>
@@ -1876,10 +1899,10 @@
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>34</v>
@@ -1890,10 +1913,10 @@
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>34</v>
@@ -1904,10 +1927,10 @@
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
@@ -1918,18 +1941,35 @@
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1975,10 +2015,10 @@
     </row>
     <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="3" t="s">
@@ -1988,10 +2028,10 @@
     </row>
     <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -1999,10 +2039,10 @@
     </row>
     <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>34</v>
@@ -2052,15 +2092,15 @@
         <v>30</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>26</v>
@@ -2071,10 +2111,10 @@
     </row>
     <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>26</v>
@@ -2099,13 +2139,13 @@
     </row>
     <row r="5" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>34</v>
@@ -2116,13 +2156,13 @@
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>34</v>
@@ -2133,13 +2173,13 @@
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
@@ -2150,10 +2190,10 @@
     </row>
     <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>26</v>
@@ -2164,10 +2204,10 @@
     </row>
     <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>34</v>
@@ -2178,13 +2218,13 @@
     </row>
     <row r="10" spans="1:7" ht="156" x14ac:dyDescent="0.15">
       <c r="A10" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>6</v>

--- a/Analisis/Interfaces/interfaces.xlsx
+++ b/Analisis/Interfaces/interfaces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Interfaces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="472" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AD35F06-639F-439B-ABDB-D7949E1C254E}"/>
+  <xr:revisionPtr revIDLastSave="531" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64AA1F5C-D56A-42A1-A668-83BFB8DABB17}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="cuadro_operaciones" sheetId="5" r:id="rId3"/>
     <sheet name="tipo_cambio" sheetId="4" r:id="rId4"/>
     <sheet name="cuadro_rectificaciones" sheetId="6" r:id="rId5"/>
+    <sheet name="cartera_garantias" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="133">
   <si>
     <t>Campo</t>
   </si>
@@ -91,12 +92,6 @@
   </si>
   <si>
     <t>operacion_titulo_rel</t>
-  </si>
-  <si>
-    <t>cod_deudor</t>
-  </si>
-  <si>
-    <t>codigo de la entidad para poder identificar el tipo de deudor que requiere el MSI.</t>
   </si>
   <si>
     <r>
@@ -156,53 +151,6 @@
       </rPr>
       <t xml:space="preserve">
 Esto quiere decir que si la entidad envia 1 o 2 no tendra que realizar la realicacion con la tabla interna para determinar este campo.</t>
-    </r>
-  </si>
-  <si>
-    <t>tipo_deudor_rel</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Las entidades podran enviar la codificacion oficial, es decir:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t xml:space="preserve">1: Deudor directo
-2: Deudor indirecto
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t xml:space="preserve">
-En caso que no, deberan relacionar el codigo de la entidad para determinar este concepto en la tabla "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>tipo_deudor_rel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
     </r>
   </si>
   <si>
@@ -272,25 +220,9 @@
     <t>gar_real_inmobiliaria</t>
   </si>
   <si>
-    <t>Corresponde al valor total de las garantías inmobiliarias constituidas para la operación reportada disponible en la fecha de referencia del archivo. En este campo se debe informar la tasación comercial, de acuerdo con el marco regulatorio aplicable a la respectiva entidad reportante. En caso de no contar con lo anterior, se deberá considerar la tasación fiscal. A falta de las tasaciones anteriores, se deberá reportar un valor de acuerdo con las metodologías o políticas internas que tenga la entidad reportante. Cuando todo lo anterior no sea posible, se deberá reportar valor cero.
-Las garantías en moneda extranjera o en pesos reajustables, se informarán actualizadas al tipo de cambio de representación contable o valor de la unidad reajustable al último día del mes de referencia de la información.
-En el caso de que la garantía sea general, la entidad reportante deberá realizar una razonable estimación del valor que se le asociaría a la obligación reportable, y ser informada en este campo. La suma de las estimaciones para todas las obligaciones reportables garantizadas por la misma garantía general debe ser consistente con su valor.</t>
-  </si>
-  <si>
     <t>gar_real_mobiliaria</t>
   </si>
   <si>
-    <t>Corresponde al valor total de las garantías constituidas en bienes muebles para la operación reportada disponible en la fecha de referencia del archivo. En este campo se debe informar
-Manual del Sistema de Información para REDEC
-Sistema de Reportantes
-ARCHIVO RDC01
-Hoja 5
-Oficio Circular N°1.387 / 02.10.2025
-la tasación comercial, de acuerdo con el marco regulatorio aplicable a la respectiva entidad reportante. En caso de no contar con lo anterior, se deberá considerar la tasación fiscal. A falta de las tasaciones anteriores, se deberá reportar un valor de acuerdo con las metodologías o políticas internas que tenga la entidad reportante. Cuando todo lo anterior no sea posible, se deberá reportar valor cero.
-Las garantías en moneda extranjera o en pesos reajustables, se informarán actualizadas al tipo de cambio de representación contable o valor de la unidad reajustable al último día del mes de referencia de la información.
-En el caso de que la garantía sea general, la entidad reportante deberá realizar una razonable estimación del valor que se le asociaría a la obligación reportable, y ser informada en este campo. La suma de las estimaciones para todas las obligaciones reportables garantizadas por la misma garantía general debe ser consistente con su valor.</t>
-  </si>
-  <si>
     <t>gar_financiera</t>
   </si>
   <si>
@@ -298,9 +230,6 @@
   </si>
   <si>
     <t>gar_personal</t>
-  </si>
-  <si>
-    <t>Se informará el monto avalado o afianzado y valorado en pesos a la fecha origen de aquella garantía a favor del reportante consignada en un contrato firmado o certificado por la persona que otorga la garantía. Cuando el límite de la garantía sea “ilimitado”, corresponde incluir el monto total de los créditos cubiertos al momento de la constitución de esa garantía. En el evento de que no se disponga de ese valor, el campo se informará con cero.</t>
   </si>
   <si>
     <t>monto_original</t>
@@ -732,6 +661,83 @@
   <si>
     <t>Tiene sentido para tipos de obligaciones 07 y 08, usos de tarjetas de credito y uso de lineas de creditos.
 Para los otros tipos de obligacion no contingente, el valor a reportar en el RDC01 se sacara desde el cuadro de pago.</t>
+  </si>
+  <si>
+    <t>id_garantia</t>
+  </si>
+  <si>
+    <t>Codigo que identifica de manera unica a la garantia.</t>
+  </si>
+  <si>
+    <t>rut_garante</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Corresponde al RUT del deudor indirecto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>. En caso de tratarse de una persona, ya sea natural o jurídica, que no posea RUT, se debe informar el “RUT ficticio” asignado, de acuerdo con las instrucciones generales del MSI REDEC.</t>
+    </r>
+  </si>
+  <si>
+    <t>codigo de la Entidad Financiera para identificar que tipo de cliente es el garante, por ejemplo: Personal Natural, Persona Juridica</t>
+  </si>
+  <si>
+    <t>Corresponde al código que identifica en forma unívoca a la operación de crédito que esta garantizando</t>
+  </si>
+  <si>
+    <t>En este campo se debe informar la tasación comercial, de acuerdo con el marco regulatorio aplicable a la respectiva entidad reportante. En caso de no contar con lo anterior, se deberá considerar la tasación fiscal. A falta de las tasaciones anteriores, se deberá reportar un valor de acuerdo con las metodologías o políticas internas que tenga la entidad reportante. Cuando todo lo anterior no sea posible, se deberá reportar valor cero.
+Las garantías en moneda extranjera o en pesos reajustables, se informarán actualizadas al tipo de cambio de representación contable o valor de la unidad reajustable al último día del mes de referencia de la información.
+En el caso de que la garantía sea general, la entidad reportante deberá realizar una razonable estimación del valor que se le asociaría a la obligación reportable, y ser informada en este campo. La suma de las estimaciones para todas las obligaciones reportables garantizadas por la misma garantía general debe ser consistente con su valor.</t>
+  </si>
+  <si>
+    <t>Corresponde a la fecha (AAAAMMDD) de otorgamiento original de la garantia</t>
+  </si>
+  <si>
+    <t>porc_real_inmobiliaria</t>
+  </si>
+  <si>
+    <t>Porcentaje de la garantia real inmobiliaria que cubre la operacion.</t>
+  </si>
+  <si>
+    <t>Ejemplo: 100% informar 100</t>
+  </si>
+  <si>
+    <t>En este campo se debe informar la tasación comercial, de acuerdo con el marco regulatorio aplicable a la respectiva entidad reportante. En caso de no contar con lo anterior, se deberá considerar la tasación fiscal. A falta de las tasaciones anteriores, se deberá reportar un valor de acuerdo con las metodologías o políticas internas que tenga la entidad reportante. Cuando todo lo anterior no sea posible, se deberá reportar valor cero.
+Las garantías en moneda extranjera o en pesos reajustables, se informarán actualizadas al tipo de cambio de representación contable o valor de la unidad reajustable al último día del mes de referencia de la información.
+En el caso de que la garantía sea general, la entidad reportante deberá realizar una razonable estimación del valor que se le asociaría a la obligación reportable, y ser informada en este campo.</t>
+  </si>
+  <si>
+    <t>porc_real_mobiliaria</t>
+  </si>
+  <si>
+    <t>Porcentaje de la garantia real mobiliaria que cubre la operacion.</t>
+  </si>
+  <si>
+    <t>porc_financiera</t>
+  </si>
+  <si>
+    <t>Porcentaje de la garantia financiera que cubre la operacion.</t>
+  </si>
+  <si>
+    <t>porc_personal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se informará el monto avalado o afianzado y valorado en pesos a la fecha origen de aquella garantía a favor del reportante consignada en un contrato firmado o certificado por la persona que otorga la garantía. </t>
+  </si>
+  <si>
+    <t>Porcentaje de la garantia personal que cubre la operacion.</t>
   </si>
 </sst>
 </file>
@@ -1181,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1215,33 +1221,33 @@
         <v>10</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -1258,10 +1264,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="144" x14ac:dyDescent="0.15">
@@ -1272,7 +1278,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
@@ -1281,10 +1287,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
@@ -1298,10 +1304,10 @@
         <v>6</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="144" x14ac:dyDescent="0.15">
@@ -1312,7 +1318,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
@@ -1321,449 +1327,346 @@
         <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="132" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="228" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="228" x14ac:dyDescent="0.15">
-      <c r="A10" s="18" t="s">
+      <c r="C9" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" ht="96" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="10"/>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="96" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="216" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>116</v>
+        <v>52</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="276" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>116</v>
+        <v>51</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>116</v>
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="84" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="96" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>47</v>
+        <v>73</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A18" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A18" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A21" s="17" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A19" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A22" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="B19" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A20" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" ht="144" x14ac:dyDescent="0.15">
+      <c r="A21" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A23" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="20" t="s">
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" ht="144" x14ac:dyDescent="0.15">
+      <c r="A22" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="22" t="s">
+      <c r="B22" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A24" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A25" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" spans="1:8" ht="144" x14ac:dyDescent="0.15">
-      <c r="A26" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="23"/>
-    </row>
-    <row r="27" spans="1:8" ht="144" x14ac:dyDescent="0.15">
-      <c r="A27" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="23"/>
-    </row>
-    <row r="28" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>31</v>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1807,21 +1710,21 @@
         <v>10</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.15">
@@ -1835,142 +1738,142 @@
         <v>6</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2015,23 +1918,23 @@
     </row>
     <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -2039,13 +1942,13 @@
     </row>
     <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2057,7 +1960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30384B7-8E23-4C8B-825F-E2F77541013E}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -2089,38 +1992,38 @@
         <v>10</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -2134,103 +2037,382 @@
         <v>6</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="156" x14ac:dyDescent="0.15">
       <c r="A10" s="17" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0031ED8-A2FE-4866-A880-33D709C0EF55}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="156" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="192" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
         <v>31</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="168" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="A12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/Interfaces/interfaces.xlsx
+++ b/Analisis/Interfaces/interfaces.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="531" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64AA1F5C-D56A-42A1-A668-83BFB8DABB17}"/>
   <bookViews>
-    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen" sheetId="2" r:id="rId1"/>
@@ -2145,9 +2145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0031ED8-A2FE-4866-A880-33D709C0EF55}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>

--- a/Analisis/Interfaces/interfaces.xlsx
+++ b/Analisis/Interfaces/interfaces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Interfaces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="531" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64AA1F5C-D56A-42A1-A668-83BFB8DABB17}"/>
+  <xr:revisionPtr revIDLastSave="625" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E381149-4F26-48CD-9066-207BAD18C679}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="769" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="tipo_cambio" sheetId="4" r:id="rId4"/>
     <sheet name="cuadro_rectificaciones" sheetId="6" r:id="rId5"/>
     <sheet name="cartera_garantias" sheetId="7" r:id="rId6"/>
+    <sheet name="variacion_stock" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="148">
   <si>
     <t>Campo</t>
   </si>
@@ -738,6 +739,98 @@
   </si>
   <si>
     <t>Porcentaje de la garantia personal que cubre la operacion.</t>
+  </si>
+  <si>
+    <t>tipo_flujo</t>
+  </si>
+  <si>
+    <t>tipo_flujo_rel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se debe informar el codigo de la entidad que se relaciona en la tabla tipo_flujo_rel.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">Ver en mantenedores
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">Tambien se puede enviar el codigo que solicita la CMF 04, 05, 06, 07, 08 y 10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Importante: No se requiere enviar y no se tomaran en cuenta los otros eventos por capitalizacion, amortizacion, nuevos creditos ya que la logica del RDC20 lo determina.</t>
+    </r>
+  </si>
+  <si>
+    <t>Codigo de la entidad para identificar el tipo de flujo que se requiere informar en el RDC20.
+Solo se requiere informar aquellos tipo de flujos que son por eventualidad como:
+- Compra de cartera
+- Cesion de credito del reportante a otra entidad
+- Cesion de credito adquirido por el reportante
+- Preescripcion sentenciada por el tribunal
+- Liquidacion de la obligacion por procedimiento concursal de liquidacion.</t>
+  </si>
+  <si>
+    <t>Corresponde informar la fecha efectiva de la ocurrencia del evento informado en el campo tipo_flujo</t>
+  </si>
+  <si>
+    <t>fecha_efectivo_flujo</t>
+  </si>
+  <si>
+    <t>ident_tribunal</t>
+  </si>
+  <si>
+    <t>Corresponde al número único asignado por el poder judicial en el “Documento de uso de APIs” para identificar los tribunales, disponible en https://numeros.pjud.cl/Legales.</t>
+  </si>
+  <si>
+    <t>Monto de la operación de los siguientes eventos:
+- Prescripciones judiciales
+- Procedimiento concursal de liquidacion
+- Venta de cartera
+- Cesion de credito
+- Compra de carteras
+- Adquisicion de credito por cesion</t>
+  </si>
+  <si>
+    <t>rut_tecera_parte</t>
+  </si>
+  <si>
+    <t>Monto debe expresarse en pesos chilenos.
+Campo utilizado para el registro 2, 3 y 4 del RDC20</t>
+  </si>
+  <si>
+    <t>Informar RUT del comprador o cesionario en caso de las ventas de cartera o cesion de credito. RUT de la entidad compradora o cesionario.
+Informar RUT del vendedor o cendente en caso de las compra de cartera o adquisiciones de creditos por cesion. RUT de la entidad vendedora o cedente.</t>
+  </si>
+  <si>
+    <t>Para casos que no corresponde como prescripciones, liquidaciones, etc, enviar vacio</t>
+  </si>
+  <si>
+    <t>monto</t>
+  </si>
+  <si>
+    <t>En caso de no corresponder enviar vacio.
+Es usado solo en registro 2 para el RDC20
+Mandatorio para las preescripciones y liquidaciones.</t>
   </si>
 </sst>
 </file>
@@ -1189,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1886,7 +1979,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1960,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30384B7-8E23-4C8B-825F-E2F77541013E}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2012,7 +2105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>76</v>
       </c>
@@ -2145,7 +2238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0031ED8-A2FE-4866-A880-33D709C0EF55}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2229,7 +2324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="156" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="144" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
@@ -2410,6 +2505,169 @@
         <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEC4432-E1AE-47BF-9403-7FBA3463A8D4}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="181.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Analisis/Interfaces/interfaces.xlsx
+++ b/Analisis/Interfaces/interfaces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Interfaces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="625" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E381149-4F26-48CD-9066-207BAD18C679}"/>
+  <xr:revisionPtr revIDLastSave="626" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C48E3DBA-FFED-40A9-8590-8CA76E7C5F94}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="769" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="769" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="145">
   <si>
     <t>Campo</t>
   </si>
@@ -802,20 +802,7 @@
     <t>Corresponde al número único asignado por el poder judicial en el “Documento de uso de APIs” para identificar los tribunales, disponible en https://numeros.pjud.cl/Legales.</t>
   </si>
   <si>
-    <t>Monto de la operación de los siguientes eventos:
-- Prescripciones judiciales
-- Procedimiento concursal de liquidacion
-- Venta de cartera
-- Cesion de credito
-- Compra de carteras
-- Adquisicion de credito por cesion</t>
-  </si>
-  <si>
     <t>rut_tecera_parte</t>
-  </si>
-  <si>
-    <t>Monto debe expresarse en pesos chilenos.
-Campo utilizado para el registro 2, 3 y 4 del RDC20</t>
   </si>
   <si>
     <t>Informar RUT del comprador o cesionario en caso de las ventas de cartera o cesion de credito. RUT de la entidad compradora o cesionario.
@@ -823,9 +810,6 @@
   </si>
   <si>
     <t>Para casos que no corresponde como prescripciones, liquidaciones, etc, enviar vacio</t>
-  </si>
-  <si>
-    <t>monto</t>
   </si>
   <si>
     <t>En caso de no corresponder enviar vacio.
@@ -2515,10 +2499,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEC4432-E1AE-47BF-9403-7FBA3463A8D4}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2628,7 +2612,7 @@
         <v>140</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
@@ -2637,37 +2621,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>143</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="7" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Analisis/Interfaces/interfaces.xlsx
+++ b/Analisis/Interfaces/interfaces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Interfaces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="626" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C48E3DBA-FFED-40A9-8590-8CA76E7C5F94}"/>
+  <xr:revisionPtr revIDLastSave="627" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F33692F2-0B72-4180-B14D-CFC7182C0261}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="769" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -802,9 +802,6 @@
     <t>Corresponde al número único asignado por el poder judicial en el “Documento de uso de APIs” para identificar los tribunales, disponible en https://numeros.pjud.cl/Legales.</t>
   </si>
   <si>
-    <t>rut_tecera_parte</t>
-  </si>
-  <si>
     <t>Informar RUT del comprador o cesionario en caso de las ventas de cartera o cesion de credito. RUT de la entidad compradora o cesionario.
 Informar RUT del vendedor o cendente en caso de las compra de cartera o adquisiciones de creditos por cesion. RUT de la entidad vendedora o cedente.</t>
   </si>
@@ -815,6 +812,9 @@
     <t>En caso de no corresponder enviar vacio.
 Es usado solo en registro 2 para el RDC20
 Mandatorio para las preescripciones y liquidaciones.</t>
+  </si>
+  <si>
+    <t>rut_tercera_parte</t>
   </si>
 </sst>
 </file>
@@ -2501,8 +2501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEC4432-E1AE-47BF-9403-7FBA3463A8D4}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2612,7 +2612,7 @@
         <v>140</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="7" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>

--- a/Analisis/Interfaces/interfaces.xlsx
+++ b/Analisis/Interfaces/interfaces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Interfaces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="627" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F33692F2-0B72-4180-B14D-CFC7182C0261}"/>
+  <xr:revisionPtr revIDLastSave="656" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CD74FDA-03BE-4AD9-B735-633865995F26}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="769" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="175">
   <si>
     <t>Campo</t>
   </si>
@@ -815,6 +815,96 @@
   </si>
   <si>
     <t>rut_tercera_parte</t>
+  </si>
+  <si>
+    <t>cod</t>
+  </si>
+  <si>
+    <t>interfaz</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>cartera_operaciones</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>cuadro_operaciones</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>tipo_cambio</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>cuadro_rectificaciones</t>
+  </si>
+  <si>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>cartera_garantias</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>variacion_stock</t>
+  </si>
+  <si>
+    <t>Ejemplo</t>
+  </si>
+  <si>
+    <t>A0120251112.txt</t>
+  </si>
+  <si>
+    <t>B0120251112.txt</t>
+  </si>
+  <si>
+    <t>C0120251112.txt</t>
+  </si>
+  <si>
+    <t>D0120251112.txt</t>
+  </si>
+  <si>
+    <t>E0120251112.txt</t>
+  </si>
+  <si>
+    <t>F0120251112.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los datos se envian delimitados por punto y coma, </t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>Datos numericos se pueden enviar con 4 decimales (decimal es con punto Ejemplo: 1.0000)</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>Datos de fechas se envian en formato YYYYMMDD</t>
+  </si>
+  <si>
+    <t>4) Datos de string no se envian entre comillas</t>
+  </si>
+  <si>
+    <t>5) Si no hay datos en fechas o string , enviar vacio, si es numerico y no hay dato enviar 0</t>
+  </si>
+  <si>
+    <t>6) Si no hay datos en una interfaz se puede enviar vacio, queda un warning en log.log_eventos</t>
   </si>
 </sst>
 </file>
@@ -1247,17 +1337,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62B3391-6ABD-4E68-B9ED-36461AA96CD0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="52.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E16" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E17" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E18" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1266,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2089,7 +2301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
         <v>76</v>
       </c>
@@ -2308,7 +2520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="144" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="156" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
@@ -2501,7 +2713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEC4432-E1AE-47BF-9403-7FBA3463A8D4}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/Analisis/Interfaces/interfaces.xlsx
+++ b/Analisis/Interfaces/interfaces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Interfaces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="656" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CD74FDA-03BE-4AD9-B735-633865995F26}"/>
+  <xr:revisionPtr revIDLastSave="665" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5611450F-E9FE-4D23-AC28-7DFC3032489F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="769" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen" sheetId="2" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>cod_persona</t>
   </si>
   <si>
@@ -806,9 +803,6 @@
 Informar RUT del vendedor o cendente en caso de las compra de cartera o adquisiciones de creditos por cesion. RUT de la entidad vendedora o cedente.</t>
   </si>
   <si>
-    <t>Para casos que no corresponde como prescripciones, liquidaciones, etc, enviar vacio</t>
-  </si>
-  <si>
     <t>En caso de no corresponder enviar vacio.
 Es usado solo en registro 2 para el RDC20
 Mandatorio para las preescripciones y liquidaciones.</t>
@@ -905,6 +899,24 @@
   </si>
   <si>
     <t>6) Si no hay datos en una interfaz se puede enviar vacio, queda un warning en log.log_eventos</t>
+  </si>
+  <si>
+    <t>Se debe informar sin puntos y guion</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Para casos que no corresponde como prescripciones, liquidaciones, etc, enviar vacio.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Se debe informar sin puntos y guion</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -983,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1051,6 +1063,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1339,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62B3391-6ABD-4E68-B9ED-36461AA96CD0}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1355,118 +1370,118 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E13" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E14" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E15" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E16" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E17" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E18" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1478,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1507,36 +1522,36 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.15">
@@ -1546,310 +1561,310 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
+      <c r="C3" s="25" t="s">
+        <v>173</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="144" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="144" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="228" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="96" x14ac:dyDescent="0.15">
       <c r="A10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="96" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A18" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>79</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>80</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>6</v>
@@ -1857,59 +1872,59 @@
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A19" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A20" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:8" ht="144" x14ac:dyDescent="0.15">
       <c r="A21" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>6</v>
@@ -1917,19 +1932,19 @@
       <c r="E21" s="22"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" ht="144" x14ac:dyDescent="0.15">
       <c r="A22" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>92</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>93</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>6</v>
@@ -1937,25 +1952,25 @@
       <c r="E22" s="22"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1968,7 +1983,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1996,173 +2011,173 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2174,9 +2189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0D6F91-99B1-4FBE-9152-7CC33476BB3C}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2202,28 +2215,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -2231,13 +2244,13 @@
     </row>
     <row r="4" spans="1:5" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2249,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30384B7-8E23-4C8B-825F-E2F77541013E}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection sqref="A1:G10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2278,151 +2291,151 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="84" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>95</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="144" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="156" x14ac:dyDescent="0.15">
       <c r="A10" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2435,7 +2448,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2463,245 +2476,245 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
+      <c r="C4" s="25" t="s">
+        <v>173</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="156" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="192" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>124</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="168" x14ac:dyDescent="0.15">
       <c r="A10" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="C11" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="C12" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="C13" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2713,8 +2726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEC4432-E1AE-47BF-9403-7FBA3463A8D4}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2742,112 +2755,112 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="181.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="82.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/Interfaces/interfaces.xlsx
+++ b/Analisis/Interfaces/interfaces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Interfaces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="665" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5611450F-E9FE-4D23-AC28-7DFC3032489F}"/>
+  <xr:revisionPtr revIDLastSave="667" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24C9720E-9183-443A-B119-5EF198A68E4C}"/>
   <bookViews>
-    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="769" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="769" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="176">
   <si>
     <t>Campo</t>
   </si>
@@ -916,6 +916,21 @@
         <rFont val="SimSun"/>
       </rPr>
       <t>Se debe informar sin puntos y guion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unico saldo que se informa en pesos
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Se informa lo devengado</t>
     </r>
   </si>
 </sst>
@@ -1493,7 +1508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1982,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCEABFF-C145-4CD4-8906-0ADE13F77864}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2146,7 +2161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
         <v>40</v>
       </c>
@@ -2154,7 +2169,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>

--- a/Analisis/Interfaces/interfaces.xlsx
+++ b/Analisis/Interfaces/interfaces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Interfaces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="667" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24C9720E-9183-443A-B119-5EF198A68E4C}"/>
+  <xr:revisionPtr revIDLastSave="746" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAF9292A-4A63-4B0C-8DCF-D51B179D80DC}"/>
   <bookViews>
-    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="769" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="769" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="cuadro_rectificaciones" sheetId="6" r:id="rId5"/>
     <sheet name="cartera_garantias" sheetId="7" r:id="rId6"/>
     <sheet name="variacion_stock" sheetId="8" r:id="rId7"/>
+    <sheet name="registro_consentimientos" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="207">
   <si>
     <t>Campo</t>
   </si>
@@ -932,6 +933,162 @@
       </rPr>
       <t>Se informa lo devengado</t>
     </r>
+  </si>
+  <si>
+    <t>RDC30</t>
+  </si>
+  <si>
+    <t>cod_consentimiento</t>
+  </si>
+  <si>
+    <t>Corresponde al código que identifica en forma unívoca al consentimiento</t>
+  </si>
+  <si>
+    <t>Corresponde informar la fecha de otorgamiento del consentimiento</t>
+  </si>
+  <si>
+    <t>Esta interfaz es por evento, no es una interfaz de stock</t>
+  </si>
+  <si>
+    <t>Deberia ser consencuente con la fecha de proceso, pero es posible enviar fecha de otorgamiento de dias anteriores en caso de no haberlos informados, es decir, si en el dia t -1 hubo un problema de proceso, se podria informar en el dia t, los otorgamientos del dia t - 1 mas los del dia t</t>
+  </si>
+  <si>
+    <t>hora_otorgamiento</t>
+  </si>
+  <si>
+    <t>Enviar en formato HHMMSS</t>
+  </si>
+  <si>
+    <t>Corresponde la hora, minuto y segundo del otorgamiento del consentimiento</t>
+  </si>
+  <si>
+    <t>fecha_fin_consentimiento</t>
+  </si>
+  <si>
+    <t>Corresponde informar la fecha fin del consentimiento.</t>
+  </si>
+  <si>
+    <t>hora_fin_consentimiento</t>
+  </si>
+  <si>
+    <t>Corresponde la hora, minuto y segundo de la finalizacion del consentimiento</t>
+  </si>
+  <si>
+    <t>rut_consultado</t>
+  </si>
+  <si>
+    <t>Corresponde al RUT de la persona que ha otorgado consentimiento para que la entidad reportante acceda a su información de deuda. En caso de tratarse de una persona que no posea RUT, ya sea natural o jurídica, se debe indicar el “RUT ficticio” asignado, de acuerdo con las instrucciones generales del MSI REDEC.</t>
+  </si>
+  <si>
+    <t>7) Datos correspondiente a RUT enviar sin puntos y guion</t>
+  </si>
+  <si>
+    <t>Enviar sin puntos y guion</t>
+  </si>
+  <si>
+    <t>cod_medio_consentimiento</t>
+  </si>
+  <si>
+    <t>Codigo de la entidad para identificar el medio consentimiento que requiere el RDC30</t>
+  </si>
+  <si>
+    <t>medio_consentimiento_rel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se debe informar el codigo de la entidad que se relaciona en la tabla medio_consentimiento_rel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">Ver en mantenedores
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Tambien se puede enviar el codigo que solicita la CMF 1,2 y/o 3</t>
+    </r>
+  </si>
+  <si>
+    <t>cod_finalidad_consentimiento</t>
+  </si>
+  <si>
+    <t>Codigo de la entidad para identificar la finalidad del consentimiento que requiere el RDC30</t>
+  </si>
+  <si>
+    <t>finalidad_consentimiento_rel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se debe informar el codigo de la entidad que se relaciona en la tabla finalidad_consentimiento_rel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">Ver en mantenedores
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Tambien se puede enviar el codigo que solicita la CMF 1 y/o 2</t>
+    </r>
+  </si>
+  <si>
+    <t>rut_ejecutivo</t>
+  </si>
+  <si>
+    <t>En este campo se debe consignar el RUT del ejecutivo que, en representación de la entidad reportante, obtuvo el consentimiento del cliente para acceder a su información de deuda. En caso de que el consentimiento haya sido ingresado en forma digital, sin mediar un ejecutivo, se debe indicar el RUT de la contraparte responsable del REDEC registrada ante la CMF.</t>
+  </si>
+  <si>
+    <t>cod_objetivo_consentimiento</t>
+  </si>
+  <si>
+    <t>Codigo de la entidad para identificar el objetivo del consentimiento que requiere el RDC30</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se debe informar el codigo de la entidad que se relaciona en la tabla objetivo_consentimiento_rel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t xml:space="preserve">Ver en mantenedores
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>Tambien se puede enviar el codigo que solicita la CMF 01,02,03,04,05,06 y/o 07</t>
+    </r>
+  </si>
+  <si>
+    <t>objetivo_consentimiento_rel</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1082,6 +1239,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1367,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62B3391-6ABD-4E68-B9ED-36461AA96CD0}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1497,6 +1657,11 @@
     <row r="18" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E18" s="1" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E19" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1997,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCEABFF-C145-4CD4-8906-0ADE13F77864}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2742,7 +2907,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2881,4 +3046,248 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C9FD62-98A9-47FC-8683-04531C81106C}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="29.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="102.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="101.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="101.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analisis/Interfaces/interfaces.xlsx
+++ b/Analisis/Interfaces/interfaces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Interfaces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="746" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAF9292A-4A63-4B0C-8DCF-D51B179D80DC}"/>
+  <xr:revisionPtr revIDLastSave="763" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33794CA4-EE0C-462C-A828-E5DFABD6586A}"/>
   <bookViews>
     <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="769" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="212">
   <si>
     <t>Campo</t>
   </si>
@@ -965,13 +965,7 @@
     <t>fecha_fin_consentimiento</t>
   </si>
   <si>
-    <t>Corresponde informar la fecha fin del consentimiento.</t>
-  </si>
-  <si>
     <t>hora_fin_consentimiento</t>
-  </si>
-  <si>
-    <t>Corresponde la hora, minuto y segundo de la finalizacion del consentimiento</t>
   </si>
   <si>
     <t>rut_consultado</t>
@@ -1089,6 +1083,58 @@
   </si>
   <si>
     <t>objetivo_consentimiento_rel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corresponde informar la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>fecha de revocacion del consentimiento</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>, en caso de que no sea el caso, se debe informar como fecha 19000101</t>
+    </r>
+  </si>
+  <si>
+    <t>Si en el caso de informar este registro no existe revocacion del consentimiento, se debe informar 19000101</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Corresponde la hora, minuto y segundo de la revocacion del consentimiento. Este campo esta ligado al anterior, por lo tanto, si no se posee datos se debe enviar </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>999999</t>
+    </r>
+  </si>
+  <si>
+    <t>Enviar en formato HHMMSS.
+En el programa del RDC30 se contralara este campo, se consultara si la fecha es 19000101, en ese caso el programa colocara 999999 en este campo.</t>
+  </si>
+  <si>
+    <t>cod_encriptado</t>
+  </si>
+  <si>
+    <t>Se refiere al código asignado al consentimiento digitalizado según lo establece el Anexo Técnico N°1 de la Norma de Carácter General N° 540.</t>
+  </si>
+  <si>
+    <t>Recordar que el largo permitido por la CMF es de 64 caracteres</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1707,7 @@
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E19" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3050,10 +3096,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C9FD62-98A9-47FC-8683-04531C81106C}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3161,14 +3207,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
         <v>185</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>206</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
@@ -3176,15 +3224,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="22.8" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
@@ -3195,13 +3243,13 @@
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>190</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -3212,19 +3260,19 @@
     </row>
     <row r="9" spans="1:9" ht="102.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>26</v>
@@ -3232,19 +3280,19 @@
     </row>
     <row r="10" spans="1:9" ht="101.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>26</v>
@@ -3252,13 +3300,13 @@
     </row>
     <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
@@ -3269,21 +3317,38 @@
     </row>
     <row r="12" spans="1:9" ht="101.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="36" x14ac:dyDescent="0.15">
+      <c r="A13" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Analisis/Interfaces/interfaces.xlsx
+++ b/Analisis/Interfaces/interfaces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Interfaces/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="763" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33794CA4-EE0C-462C-A828-E5DFABD6586A}"/>
+  <xr:revisionPtr revIDLastSave="794" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBF90427-0237-4CE5-A3A2-FD14AF0609AB}"/>
   <bookViews>
-    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="769" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13590" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="769" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resumen" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="cartera_garantias" sheetId="7" r:id="rId6"/>
     <sheet name="variacion_stock" sheetId="8" r:id="rId7"/>
     <sheet name="registro_consentimientos" sheetId="9" r:id="rId8"/>
+    <sheet name="acceso_consentimientos" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="222">
   <si>
     <t>Campo</t>
   </si>
@@ -1135,6 +1136,37 @@
   </si>
   <si>
     <t>Recordar que el largo permitido por la CMF es de 64 caracteres</t>
+  </si>
+  <si>
+    <t>RDC31</t>
+  </si>
+  <si>
+    <t>Corresponde al código que identifica en forma unívoca al consentimiento, este es el mismo que se debe informar en el RDC30, pero la diferencia es que en esta interfaz estan materializados los eventos de acceso a la plataforma de la CMF para consultar la informacion del deudor</t>
+  </si>
+  <si>
+    <t>fecha_acceso</t>
+  </si>
+  <si>
+    <t>Se refiere a la fecha (AAAAMMDD) en la que los sistemas de la entidad reportante acceden al registro sujeto a consentimiento a consultar los datos de una persona específica. Cada acceso a información de una persona específica deberá registrarse de manera independiente.</t>
+  </si>
+  <si>
+    <t>Se deben informar todos los accesos</t>
+  </si>
+  <si>
+    <t>hora_acceso</t>
+  </si>
+  <si>
+    <t>Se refiere a la hora (HHMMSS) en la que los sistemas de la entidad reportante acceden al registro sujeto a consentimiento a consultar los datos de una persona específica. Cada acceso a información de una persona específica deberá registrarse de manera independiente.</t>
+  </si>
+  <si>
+    <t>rut_mandatario</t>
+  </si>
+  <si>
+    <t>En caso de que el acceso al archivo de deuda específico del deudor haya sido por un mandatario, deberá indicar el RUT de la entidad que cuenta con el mandato para ello. De lo contrario su valor será nulo.</t>
+  </si>
+  <si>
+    <t>Enviar sin puntos y guion.
+En esta interfaz NULL implica enviar vacio.</t>
   </si>
 </sst>
 </file>
@@ -1304,10 +1336,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3098,8 +3126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C9FD62-98A9-47FC-8683-04531C81106C}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3355,4 +3383,154 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AD55A8-5E52-44FD-9AF7-8B289A84E233}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="29.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="48" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="48" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:10" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:10" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:10" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:10" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:10" ht="12" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>